--- a/biology/Zoologie/Firasabé_de_Madagascar/Firasabé_de_Madagascar.xlsx
+++ b/biology/Zoologie/Firasabé_de_Madagascar/Firasabé_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Firasab%C3%A9_de_Madagascar</t>
+          <t>Firasabé_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eutriorchis astur
 Le Firasabé de Madagascar (Eutriorchis astur), anciennement connu en tant que Serpentaire de Madagascar, est une espèce de rapaces diurnes de la famille des Accipitridae. C'est la seule espèce du genre Eutriorchis. D'après Alan P. Peterson, c'est une espèce monotypique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Firasab%C3%A9_de_Madagascar</t>
+          <t>Firasabé_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 66 cm.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Firasab%C3%A9_de_Madagascar</t>
+          <t>Firasabé_de_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple les forêts humides de l'est de Madagascar.comme dans le Parc Natiaonal Masoala.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Firasab%C3%A9_de_Madagascar</t>
+          <t>Firasabé_de_Madagascar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau se nourrit en partie de caméléons.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Firasab%C3%A9_de_Madagascar</t>
+          <t>Firasabé_de_Madagascar</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Liste des espèces d'oiseaux de Madagascar</t>
         </is>
